--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>url</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Wanted brochure for the Cources and details</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -466,7 +463,7 @@
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -474,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -482,7 +479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -490,17 +487,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
